--- a/04. Ke Hoach/02. Ke hoach nhom/191029_KehoachNhom.xlsx
+++ b/04. Ke Hoach/02. Ke hoach nhom/191029_KehoachNhom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>KẾ HOẠCH NHÓM</t>
   </si>
@@ -48,18 +48,12 @@
     <t>Tool follow user</t>
   </si>
   <si>
-    <t>Tìm các thủ thuật</t>
-  </si>
-  <si>
     <t>Tìm hiểu cách chụp hình, nội dung, đăng bài</t>
   </si>
   <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>- Tìm hiểu HagTag</t>
-  </si>
-  <si>
     <t>- Chạy file .py lấy thông tin và lưu vào excel</t>
   </si>
   <si>
@@ -82,6 +76,30 @@
   </si>
   <si>
     <t>- Chọn kiến trúc và gọp các tính năng vào 1 project</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu về thuật toán tương tác</t>
+  </si>
+  <si>
+    <t>Tìm các thủ thuật Instagram</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu thời gian đăng bài</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu cách phân tích dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/29/2019</t>
+  </si>
+  <si>
+    <t>1h/ngày</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu HashTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/31/2019</t>
   </si>
 </sst>
 </file>
@@ -243,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,12 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,9 +282,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,6 +294,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,18 +599,18 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -591,513 +622,527 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="30"/>
+      <c r="O4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>3</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="26"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>5</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>5</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="21"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="22"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1131,16 +1176,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04. Ke Hoach/02. Ke hoach nhom/191029_KehoachNhom.xlsx
+++ b/04. Ke Hoach/02. Ke hoach nhom/191029_KehoachNhom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,15 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,6 +306,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,18 +599,18 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -622,38 +622,38 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -681,7 +681,7 @@
       <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -705,7 +705,7 @@
       <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -727,7 +727,7 @@
       <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -749,7 +749,7 @@
       <c r="T8" s="26"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="35">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -777,7 +777,7 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -801,7 +801,7 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -823,7 +823,7 @@
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -845,7 +845,7 @@
       <c r="T12" s="15"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="34">
         <v>3</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -873,7 +873,7 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -897,7 +897,7 @@
       <c r="T14" s="22"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -921,7 +921,7 @@
       <c r="T15" s="22"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -945,7 +945,7 @@
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="35">
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -961,10 +961,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="33"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="8" t="s">
         <v>24</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -989,10 +989,10 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="34"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="9"/>
       <c r="N18" s="11"/>
       <c r="O18" s="10"/>
@@ -1003,7 +1003,7 @@
       <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1015,10 +1015,10 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="34"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="9"/>
       <c r="N19" s="11"/>
       <c r="O19" s="10"/>
@@ -1029,12 +1029,12 @@
       <c r="T19" s="11"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="28" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="14"/>
@@ -1053,7 +1053,7 @@
       <c r="T20" s="15"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="34">
         <v>5</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -1079,7 +1079,7 @@
       <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -1101,7 +1101,7 @@
       <c r="T22" s="22"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -1123,7 +1123,7 @@
       <c r="T23" s="22"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1176,16 +1176,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:T4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
